--- a/data/pca/factorExposure/factorExposure_2018-01-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.00137021455630293</v>
+        <v>-0.01156853256951481</v>
       </c>
       <c r="C2">
-        <v>-0.003890562466356379</v>
+        <v>-0.02868618798106777</v>
       </c>
       <c r="D2">
-        <v>0.02252756201032345</v>
+        <v>-0.02593222462939528</v>
       </c>
       <c r="E2">
-        <v>-0.04374037667192747</v>
+        <v>0.01125137346607409</v>
       </c>
       <c r="F2">
-        <v>-0.04775892301996951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03161216699163055</v>
+      </c>
+      <c r="G2">
+        <v>0.01496381023125836</v>
+      </c>
+      <c r="H2">
+        <v>0.026017670471085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06396325803946554</v>
+        <v>-0.05703618691887436</v>
       </c>
       <c r="C3">
-        <v>0.005104378705832509</v>
+        <v>-0.08322638972204542</v>
       </c>
       <c r="D3">
-        <v>-0.02172010190842022</v>
+        <v>-0.009596306539106274</v>
       </c>
       <c r="E3">
-        <v>-0.1652610257601282</v>
+        <v>0.05330703951825215</v>
       </c>
       <c r="F3">
-        <v>-0.2263482983565359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.1097077502637619</v>
+      </c>
+      <c r="G3">
+        <v>-0.004889028396219028</v>
+      </c>
+      <c r="H3">
+        <v>0.07765369682356217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03027398622632505</v>
+        <v>-0.0373986279485671</v>
       </c>
       <c r="C4">
-        <v>0.0175162728009831</v>
+        <v>-0.06096775913410363</v>
       </c>
       <c r="D4">
-        <v>0.03143194695635419</v>
+        <v>-0.01997401073692534</v>
       </c>
       <c r="E4">
-        <v>-0.000906188177729131</v>
+        <v>-0.003184357571187234</v>
       </c>
       <c r="F4">
-        <v>-0.04970699629632461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04240279048953696</v>
+      </c>
+      <c r="G4">
+        <v>-0.02519197691805259</v>
+      </c>
+      <c r="H4">
+        <v>0.001303407007981517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04805954156748837</v>
+        <v>-0.0220209400080707</v>
       </c>
       <c r="C6">
-        <v>0.007695907886630796</v>
+        <v>-0.05649646737703631</v>
       </c>
       <c r="D6">
-        <v>0.04254323626078481</v>
+        <v>-0.01451016247691976</v>
       </c>
       <c r="E6">
-        <v>0.001221107268595605</v>
+        <v>-0.00375929893411796</v>
       </c>
       <c r="F6">
-        <v>-0.04051492308721763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02105183658283879</v>
+      </c>
+      <c r="G6">
+        <v>-0.01100288461756796</v>
+      </c>
+      <c r="H6">
+        <v>0.005871958647290323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01955664725110162</v>
+        <v>-0.004769534141749219</v>
       </c>
       <c r="C7">
-        <v>0.07148462209956832</v>
+        <v>-0.02978625790863787</v>
       </c>
       <c r="D7">
-        <v>0.005096763446099241</v>
+        <v>-0.01218045018148798</v>
       </c>
       <c r="E7">
-        <v>-0.005339050599885781</v>
+        <v>-0.01732038637917978</v>
       </c>
       <c r="F7">
-        <v>-0.01249747577580534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02593887159242267</v>
+      </c>
+      <c r="G7">
+        <v>-0.06050013532148399</v>
+      </c>
+      <c r="H7">
+        <v>0.04132350020608216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0125913524475628</v>
+        <v>0.006031802277344335</v>
       </c>
       <c r="C8">
-        <v>0.008950557302105562</v>
+        <v>-0.0009768028080815042</v>
       </c>
       <c r="D8">
-        <v>0.02112783121474154</v>
+        <v>-0.001990548250017025</v>
       </c>
       <c r="E8">
-        <v>-0.005722364368002867</v>
+        <v>0.004278151336124375</v>
       </c>
       <c r="F8">
-        <v>-0.04530483184253025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02820287371595868</v>
+      </c>
+      <c r="G8">
+        <v>-0.01069133635366341</v>
+      </c>
+      <c r="H8">
+        <v>0.003552486278862873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0257729665550618</v>
+        <v>-0.01776525353774513</v>
       </c>
       <c r="C9">
-        <v>0.01393949766705176</v>
+        <v>-0.04064550310351864</v>
       </c>
       <c r="D9">
-        <v>0.03071914242920389</v>
+        <v>-0.01415359781340558</v>
       </c>
       <c r="E9">
-        <v>-0.03177100300749067</v>
+        <v>-0.0006580881236029566</v>
       </c>
       <c r="F9">
-        <v>-0.05063932976835603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02303689740833286</v>
+      </c>
+      <c r="G9">
+        <v>-0.01505212286683469</v>
+      </c>
+      <c r="H9">
+        <v>0.02339476979820886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05786221953027427</v>
+        <v>-0.1145196847202677</v>
       </c>
       <c r="C10">
-        <v>-0.006142321642102832</v>
+        <v>0.166543315358858</v>
       </c>
       <c r="D10">
-        <v>-0.156208240446569</v>
+        <v>0.02198785458108281</v>
       </c>
       <c r="E10">
-        <v>-0.05707135858172557</v>
+        <v>0.02505303224288647</v>
       </c>
       <c r="F10">
-        <v>0.003707656401186538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.003686840229998581</v>
+      </c>
+      <c r="G10">
+        <v>-0.02100815688846029</v>
+      </c>
+      <c r="H10">
+        <v>0.03916898972187108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02655946051972873</v>
+        <v>-0.0194745706335127</v>
       </c>
       <c r="C11">
-        <v>-0.001977745700002293</v>
+        <v>-0.05010567590786461</v>
       </c>
       <c r="D11">
-        <v>0.04314360127509029</v>
+        <v>-0.0003017595278039102</v>
       </c>
       <c r="E11">
-        <v>0.004881965428413131</v>
+        <v>-0.008211952500524793</v>
       </c>
       <c r="F11">
-        <v>-0.01912273096671107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03218879834333903</v>
+      </c>
+      <c r="G11">
+        <v>0.01143051771910721</v>
+      </c>
+      <c r="H11">
+        <v>0.01865476384551699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03313378467961861</v>
+        <v>-0.02203477137124428</v>
       </c>
       <c r="C12">
-        <v>0.00369504717266671</v>
+        <v>-0.04546466051227564</v>
       </c>
       <c r="D12">
-        <v>0.03838506654990929</v>
+        <v>-0.004369879926925208</v>
       </c>
       <c r="E12">
-        <v>0.01873024823297078</v>
+        <v>-0.01264819027322168</v>
       </c>
       <c r="F12">
-        <v>-0.002153476289755306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01646290774430186</v>
+      </c>
+      <c r="G12">
+        <v>-0.006155160154855168</v>
+      </c>
+      <c r="H12">
+        <v>0.01160282736455758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01449557098545381</v>
+        <v>-0.01110039190122936</v>
       </c>
       <c r="C13">
-        <v>-0.003286595511678809</v>
+        <v>-0.02303599073799441</v>
       </c>
       <c r="D13">
-        <v>0.006696807135596154</v>
+        <v>-0.02231537953990832</v>
       </c>
       <c r="E13">
-        <v>-0.0229416028975586</v>
+        <v>0.01417498519287522</v>
       </c>
       <c r="F13">
-        <v>-0.04781857777970383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.04894091387531141</v>
+      </c>
+      <c r="G13">
+        <v>0.003317364950623408</v>
+      </c>
+      <c r="H13">
+        <v>0.02294818626534653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.011473193213423</v>
+        <v>-0.003622139250816836</v>
       </c>
       <c r="C14">
-        <v>0.01557829845369092</v>
+        <v>-0.01826010165957493</v>
       </c>
       <c r="D14">
-        <v>0.006613728828632011</v>
+        <v>-0.007638421256559881</v>
       </c>
       <c r="E14">
-        <v>-0.003183265884688584</v>
+        <v>-0.006379857551902022</v>
       </c>
       <c r="F14">
-        <v>-0.03999073320507007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02062850212179222</v>
+      </c>
+      <c r="G14">
+        <v>-0.024422248228547</v>
+      </c>
+      <c r="H14">
+        <v>0.01077672363704289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02247156778494213</v>
+        <v>-0.01770506085954519</v>
       </c>
       <c r="C16">
-        <v>0.003372871138421465</v>
+        <v>-0.04063137130233244</v>
       </c>
       <c r="D16">
-        <v>0.04096200885574047</v>
+        <v>-0.0001234496404054963</v>
       </c>
       <c r="E16">
-        <v>0.003259106578349747</v>
+        <v>-0.005888216403954478</v>
       </c>
       <c r="F16">
-        <v>-0.02005676243187154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02360411119844985</v>
+      </c>
+      <c r="G16">
+        <v>-0.0005819461393646577</v>
+      </c>
+      <c r="H16">
+        <v>0.0139369519510034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02589829446015286</v>
+        <v>-0.02043734023563392</v>
       </c>
       <c r="C19">
-        <v>0.001545972442588058</v>
+        <v>-0.04514233059415042</v>
       </c>
       <c r="D19">
-        <v>0.03070467142932327</v>
+        <v>-0.01229105617837715</v>
       </c>
       <c r="E19">
-        <v>-0.002811651349914762</v>
+        <v>0.01782849293987264</v>
       </c>
       <c r="F19">
-        <v>-0.07968666448961846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.06389513530270274</v>
+      </c>
+      <c r="G19">
+        <v>-0.006572396961775554</v>
+      </c>
+      <c r="H19">
+        <v>0.01216385354275624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001010461886505691</v>
+        <v>-0.003726497469800141</v>
       </c>
       <c r="C20">
-        <v>0.004262252212655415</v>
+        <v>-0.02365688066728889</v>
       </c>
       <c r="D20">
-        <v>0.0004525811252525276</v>
+        <v>-0.01178573838644969</v>
       </c>
       <c r="E20">
-        <v>-0.02398573255328818</v>
+        <v>0.01427388720673038</v>
       </c>
       <c r="F20">
-        <v>-0.02488232490267953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02483531181183675</v>
+      </c>
+      <c r="G20">
+        <v>-0.008205822909978221</v>
+      </c>
+      <c r="H20">
+        <v>0.01540064605772469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02968130290292359</v>
+        <v>-0.005887411011323029</v>
       </c>
       <c r="C21">
-        <v>0.02333455767674867</v>
+        <v>-0.02234347220928535</v>
       </c>
       <c r="D21">
-        <v>0.02048132235777078</v>
+        <v>-0.01442538747681806</v>
       </c>
       <c r="E21">
-        <v>-0.003216117877363302</v>
+        <v>0.01235290189497562</v>
       </c>
       <c r="F21">
-        <v>-0.03550292248615087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.04397564429090965</v>
+      </c>
+      <c r="G21">
+        <v>-0.02141298969734113</v>
+      </c>
+      <c r="H21">
+        <v>0.02999432487221062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02173941687304058</v>
+        <v>-0.01227485664194236</v>
       </c>
       <c r="C24">
-        <v>0.001619346808840364</v>
+        <v>-0.04175294512659757</v>
       </c>
       <c r="D24">
-        <v>0.0325834343045427</v>
+        <v>-0.005288714849246669</v>
       </c>
       <c r="E24">
-        <v>0.003951321385156445</v>
+        <v>-0.01080034628481688</v>
       </c>
       <c r="F24">
-        <v>-0.01771124267075851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02491069940930667</v>
+      </c>
+      <c r="G24">
+        <v>0.005323402516428737</v>
+      </c>
+      <c r="H24">
+        <v>0.0193818121187177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03416565422236926</v>
+        <v>-0.02857719021294296</v>
       </c>
       <c r="C25">
-        <v>0.000481328129887313</v>
+        <v>-0.05119764165929281</v>
       </c>
       <c r="D25">
-        <v>0.03418453367273173</v>
+        <v>-0.008663007439297059</v>
       </c>
       <c r="E25">
-        <v>-0.004530500430705683</v>
+        <v>-0.01701144633568794</v>
       </c>
       <c r="F25">
-        <v>-0.0309041490795398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02624983925051259</v>
+      </c>
+      <c r="G25">
+        <v>-0.003805229013737853</v>
+      </c>
+      <c r="H25">
+        <v>0.01178518430424122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007687101569119856</v>
+        <v>-0.002557335822110543</v>
       </c>
       <c r="C26">
-        <v>0.006956742685244567</v>
+        <v>-0.001163885406678179</v>
       </c>
       <c r="D26">
-        <v>0.008838649965089544</v>
+        <v>-0.02303112967896755</v>
       </c>
       <c r="E26">
-        <v>-0.03378293866646145</v>
+        <v>-0.002116107300416771</v>
       </c>
       <c r="F26">
-        <v>-0.02572758633842727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009560314769698075</v>
+      </c>
+      <c r="G26">
+        <v>-0.01271189689780954</v>
+      </c>
+      <c r="H26">
+        <v>0.01661614718985097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.003145798433717855</v>
+        <v>-0.001384269838819689</v>
       </c>
       <c r="C27">
-        <v>-0.0004954323757715595</v>
+        <v>0.0008469697447296349</v>
       </c>
       <c r="D27">
-        <v>-0.006394919277370885</v>
+        <v>0.0005923625146173107</v>
       </c>
       <c r="E27">
-        <v>0.008152057267459618</v>
+        <v>0.0008800153219935616</v>
       </c>
       <c r="F27">
-        <v>-0.01143279407219128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.001721477189608993</v>
+      </c>
+      <c r="G27">
+        <v>-0.003183849966193151</v>
+      </c>
+      <c r="H27">
+        <v>-0.00598324247952042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.101369668897926</v>
+        <v>-0.1565817682706371</v>
       </c>
       <c r="C28">
-        <v>-0.009861634084135472</v>
+        <v>0.2085452911278375</v>
       </c>
       <c r="D28">
-        <v>-0.226367453679298</v>
+        <v>0.01587306003509066</v>
       </c>
       <c r="E28">
-        <v>-0.06653473274186343</v>
+        <v>0.01737909583969867</v>
       </c>
       <c r="F28">
-        <v>0.009350080903600906</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.003398729416318296</v>
+      </c>
+      <c r="G28">
+        <v>-0.03044112024612622</v>
+      </c>
+      <c r="H28">
+        <v>0.03946827186869599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0123795842910118</v>
+        <v>-0.009082881374592998</v>
       </c>
       <c r="C29">
-        <v>0.01139387235253957</v>
+        <v>-0.01501910409055213</v>
       </c>
       <c r="D29">
-        <v>0.005818901974965865</v>
+        <v>-0.006305776388827954</v>
       </c>
       <c r="E29">
-        <v>-0.0009984711494539311</v>
+        <v>-0.006152452831825718</v>
       </c>
       <c r="F29">
-        <v>-0.03950210401023305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01344638863836484</v>
+      </c>
+      <c r="G29">
+        <v>-0.02277603993726679</v>
+      </c>
+      <c r="H29">
+        <v>0.002216776888432374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03821504080480118</v>
+        <v>-0.03235010841335315</v>
       </c>
       <c r="C30">
-        <v>-0.04761377209799325</v>
+        <v>-0.07895586882619693</v>
       </c>
       <c r="D30">
-        <v>0.05515650317286584</v>
+        <v>-0.0237417778729283</v>
       </c>
       <c r="E30">
-        <v>-0.008435127134707621</v>
+        <v>0.0004403121216829004</v>
       </c>
       <c r="F30">
-        <v>-0.08390838105684173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04591060502771035</v>
+      </c>
+      <c r="G30">
+        <v>0.03030715439052962</v>
+      </c>
+      <c r="H30">
+        <v>-0.01349160085119784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04426859640003554</v>
+        <v>-0.03190891493292772</v>
       </c>
       <c r="C31">
-        <v>0.01166667598415271</v>
+        <v>-0.02008835340648543</v>
       </c>
       <c r="D31">
-        <v>0.0154536106442532</v>
+        <v>-0.001336635093516323</v>
       </c>
       <c r="E31">
-        <v>0.006222762177487616</v>
+        <v>-0.008601200891860623</v>
       </c>
       <c r="F31">
-        <v>-0.02172864170410038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01220084032375761</v>
+      </c>
+      <c r="G31">
+        <v>-0.02472252246522388</v>
+      </c>
+      <c r="H31">
+        <v>0.007339410651144612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.006359742562209955</v>
+        <v>-0.00837090238209068</v>
       </c>
       <c r="C32">
-        <v>0.02727652055477754</v>
+        <v>-0.02314130502955456</v>
       </c>
       <c r="D32">
-        <v>0.02568483227772018</v>
+        <v>0.00775389296181064</v>
       </c>
       <c r="E32">
-        <v>0.008744897559049312</v>
+        <v>-0.0002505055456140166</v>
       </c>
       <c r="F32">
-        <v>-0.05016877745747107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.1002654397830571</v>
+      </c>
+      <c r="G32">
+        <v>-0.008620270983187324</v>
+      </c>
+      <c r="H32">
+        <v>0.01154139948933043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03142782760512981</v>
+        <v>-0.01946094193553803</v>
       </c>
       <c r="C33">
-        <v>-0.01829347179514741</v>
+        <v>-0.04546882795538308</v>
       </c>
       <c r="D33">
-        <v>0.03569390593871287</v>
+        <v>-0.01196523919111461</v>
       </c>
       <c r="E33">
-        <v>-0.01996502527933617</v>
+        <v>0.008683550954260681</v>
       </c>
       <c r="F33">
-        <v>-0.04454464517256479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02538156170642305</v>
+      </c>
+      <c r="G33">
+        <v>0.009310739122552826</v>
+      </c>
+      <c r="H33">
+        <v>0.02688775636385918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02395111774564005</v>
+        <v>-0.02874307432127709</v>
       </c>
       <c r="C34">
-        <v>0.01144595360045641</v>
+        <v>-0.05048907711049345</v>
       </c>
       <c r="D34">
-        <v>0.04074480360025061</v>
+        <v>0.007645286765717906</v>
       </c>
       <c r="E34">
-        <v>0.005642513588333556</v>
+        <v>-0.02138080057031305</v>
       </c>
       <c r="F34">
-        <v>-0.02295127636927232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0265217374499164</v>
+      </c>
+      <c r="G34">
+        <v>-0.006653850413645396</v>
+      </c>
+      <c r="H34">
+        <v>0.01679700692055823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01167632204993846</v>
+        <v>-0.006093694045297371</v>
       </c>
       <c r="C36">
-        <v>0.005950417552119138</v>
+        <v>-0.0006764884025608101</v>
       </c>
       <c r="D36">
-        <v>0.002177767517294365</v>
+        <v>-0.01041532819186746</v>
       </c>
       <c r="E36">
-        <v>-0.009198114896383293</v>
+        <v>-0.0001647711380869453</v>
       </c>
       <c r="F36">
-        <v>-0.02242105840400782</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.00730451255541263</v>
+      </c>
+      <c r="G36">
+        <v>-0.008303408376014208</v>
+      </c>
+      <c r="H36">
+        <v>0.01310382627661414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01696232981616868</v>
+        <v>-0.0238598996829718</v>
       </c>
       <c r="C38">
-        <v>-0.003318219628067097</v>
+        <v>-0.01713688620438633</v>
       </c>
       <c r="D38">
-        <v>0.001432657789697636</v>
+        <v>0.009454728182560565</v>
       </c>
       <c r="E38">
-        <v>-0.03065243188331156</v>
+        <v>-0.002773427133273247</v>
       </c>
       <c r="F38">
-        <v>-0.03693336785029951</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01466253434419411</v>
+      </c>
+      <c r="G38">
+        <v>-0.008805794749318797</v>
+      </c>
+      <c r="H38">
+        <v>0.01160417895009852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01846176303783108</v>
+        <v>-0.009590936133786922</v>
       </c>
       <c r="C39">
-        <v>0.009011587028733819</v>
+        <v>-0.08324684509677428</v>
       </c>
       <c r="D39">
-        <v>0.0588250104789798</v>
+        <v>-0.01084743383793905</v>
       </c>
       <c r="E39">
-        <v>-0.01293785719095433</v>
+        <v>-0.003742197833962741</v>
       </c>
       <c r="F39">
-        <v>-0.04592517233399643</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04138188845772591</v>
+      </c>
+      <c r="G39">
+        <v>0.01066351514178186</v>
+      </c>
+      <c r="H39">
+        <v>0.03096997690118371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02200119137573711</v>
+        <v>-0.01843675570967678</v>
       </c>
       <c r="C40">
-        <v>-0.002293089846052639</v>
+        <v>-0.02425136524463054</v>
       </c>
       <c r="D40">
-        <v>0.0355527023593972</v>
+        <v>-0.01061130988700727</v>
       </c>
       <c r="E40">
-        <v>-0.01588672878741409</v>
+        <v>-0.0005615239210407156</v>
       </c>
       <c r="F40">
-        <v>-0.009057787269696079</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02777996937213137</v>
+      </c>
+      <c r="G40">
+        <v>0.007916203955582462</v>
+      </c>
+      <c r="H40">
+        <v>0.02463925634249473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008458743949482726</v>
+        <v>-0.0106834445578363</v>
       </c>
       <c r="C41">
-        <v>-0.001181851586467195</v>
+        <v>0.007061148017756249</v>
       </c>
       <c r="D41">
-        <v>-0.01379444072337489</v>
+        <v>-0.002623855026755841</v>
       </c>
       <c r="E41">
-        <v>-0.01413282641119424</v>
+        <v>-0.004762224586830794</v>
       </c>
       <c r="F41">
-        <v>0.002289544391838072</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.003246180553513188</v>
+      </c>
+      <c r="G41">
+        <v>-0.002809567097405091</v>
+      </c>
+      <c r="H41">
+        <v>0.011851670263661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2468925993764012</v>
+        <v>-0.05612229878532401</v>
       </c>
       <c r="C42">
-        <v>-0.153365066596551</v>
+        <v>-0.1085001567961696</v>
       </c>
       <c r="D42">
-        <v>0.2704416554309874</v>
+        <v>-0.1178603866726298</v>
       </c>
       <c r="E42">
-        <v>-0.6502406200152612</v>
+        <v>0.1250608277399959</v>
       </c>
       <c r="F42">
-        <v>0.6025244217899458</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.5926207428433687</v>
+      </c>
+      <c r="G42">
+        <v>0.3335368434486388</v>
+      </c>
+      <c r="H42">
+        <v>0.6841278181430541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01470792071031464</v>
+        <v>-0.01455180023888993</v>
       </c>
       <c r="C43">
-        <v>-0.003686601687934173</v>
+        <v>0.001104566134081005</v>
       </c>
       <c r="D43">
-        <v>-0.00567473169091625</v>
+        <v>-0.003337526466776737</v>
       </c>
       <c r="E43">
-        <v>-0.01647872257395499</v>
+        <v>-0.001474998091637079</v>
       </c>
       <c r="F43">
-        <v>-0.01007738544701907</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01110612704708437</v>
+      </c>
+      <c r="G43">
+        <v>0.001879900575954867</v>
+      </c>
+      <c r="H43">
+        <v>0.01753803961809712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.008125014640473846</v>
+        <v>-0.007586432383965531</v>
       </c>
       <c r="C44">
-        <v>0.011576746720376</v>
+        <v>-0.04106848239950272</v>
       </c>
       <c r="D44">
-        <v>0.01848724862868956</v>
+        <v>-0.005660772352971149</v>
       </c>
       <c r="E44">
-        <v>-0.03550895848793555</v>
+        <v>0.009303042262664638</v>
       </c>
       <c r="F44">
-        <v>-0.06332400655605273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03409868999499694</v>
+      </c>
+      <c r="G44">
+        <v>-0.006171158338599777</v>
+      </c>
+      <c r="H44">
+        <v>0.03719019631124642</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01252944941059765</v>
+        <v>0.0004381891605851564</v>
       </c>
       <c r="C46">
-        <v>0.002946796940570464</v>
+        <v>-0.008029519363392452</v>
       </c>
       <c r="D46">
-        <v>0.03513638876125312</v>
+        <v>-0.01103247622516749</v>
       </c>
       <c r="E46">
-        <v>-0.007358380901458272</v>
+        <v>0.001125781079198482</v>
       </c>
       <c r="F46">
-        <v>-0.06709327783870357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01073013613253214</v>
+      </c>
+      <c r="G46">
+        <v>-0.01374964405134654</v>
+      </c>
+      <c r="H46">
+        <v>0.003448034406252519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06762814713046165</v>
+        <v>-0.0550883204134467</v>
       </c>
       <c r="C47">
-        <v>-0.003352456029843243</v>
+        <v>-0.05394781361094382</v>
       </c>
       <c r="D47">
-        <v>0.01916660986124866</v>
+        <v>0.006974602842635996</v>
       </c>
       <c r="E47">
-        <v>0.02599258916978825</v>
+        <v>-0.006159632234026832</v>
       </c>
       <c r="F47">
-        <v>0.006061706312995461</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03481050416861133</v>
+      </c>
+      <c r="G47">
+        <v>-0.03119088032283131</v>
+      </c>
+      <c r="H47">
+        <v>-0.009627597067841887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02115892147356066</v>
+        <v>-0.008292132905399187</v>
       </c>
       <c r="C48">
-        <v>0.004764104522015376</v>
+        <v>-0.004201408753676879</v>
       </c>
       <c r="D48">
-        <v>0.005877518890872046</v>
+        <v>-0.0006143008455561717</v>
       </c>
       <c r="E48">
-        <v>-0.008065479973897902</v>
+        <v>-0.001402129980717325</v>
       </c>
       <c r="F48">
-        <v>-0.02314598264680883</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0008650431628872449</v>
+      </c>
+      <c r="G48">
+        <v>-0.01484312016211398</v>
+      </c>
+      <c r="H48">
+        <v>0.009109646366393295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0775928465877847</v>
+        <v>-0.05729432626986644</v>
       </c>
       <c r="C50">
-        <v>0.02577504116596377</v>
+        <v>-0.05340540850957971</v>
       </c>
       <c r="D50">
-        <v>0.03976501632390006</v>
+        <v>0.005796733079896761</v>
       </c>
       <c r="E50">
-        <v>0.00979872792553837</v>
+        <v>-0.007849725464514264</v>
       </c>
       <c r="F50">
-        <v>-0.02426254754380433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02618804778412247</v>
+      </c>
+      <c r="G50">
+        <v>-0.05523103575025026</v>
+      </c>
+      <c r="H50">
+        <v>0.004747812030504963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00556692983256718</v>
+        <v>-0.006002603337610417</v>
       </c>
       <c r="C51">
-        <v>0.007737307010791373</v>
+        <v>-0.01702845124784401</v>
       </c>
       <c r="D51">
-        <v>-0.01528001616482476</v>
+        <v>-0.007833098707085122</v>
       </c>
       <c r="E51">
-        <v>-0.03912862304594263</v>
+        <v>-0.004854144459315262</v>
       </c>
       <c r="F51">
-        <v>-0.06112722370764511</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03737622811073731</v>
+      </c>
+      <c r="G51">
+        <v>-0.007397371159699869</v>
+      </c>
+      <c r="H51">
+        <v>0.03526938383792433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09980469278913272</v>
+        <v>-0.07917761527404013</v>
       </c>
       <c r="C53">
-        <v>0.009049288882337803</v>
+        <v>-0.08213440155382262</v>
       </c>
       <c r="D53">
-        <v>0.04880163776651501</v>
+        <v>0.008237915837155848</v>
       </c>
       <c r="E53">
-        <v>0.05694561972770093</v>
+        <v>-0.03026371574240528</v>
       </c>
       <c r="F53">
-        <v>0.01192425361062739</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05138493110677725</v>
+      </c>
+      <c r="G53">
+        <v>-0.04019619488079631</v>
+      </c>
+      <c r="H53">
+        <v>-0.01477601179966173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02437395828698707</v>
+        <v>-0.02067003154838381</v>
       </c>
       <c r="C54">
-        <v>0.009741224696723984</v>
+        <v>-0.002453600481084848</v>
       </c>
       <c r="D54">
-        <v>-0.003633503357792062</v>
+        <v>0.005267301216318101</v>
       </c>
       <c r="E54">
-        <v>0.01035563298311054</v>
+        <v>0.001630008262420619</v>
       </c>
       <c r="F54">
-        <v>-0.02866694678843799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01711187145706653</v>
+      </c>
+      <c r="G54">
+        <v>-0.01769802876539409</v>
+      </c>
+      <c r="H54">
+        <v>0.009050675085546706</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07298079978093092</v>
+        <v>-0.05164705661424612</v>
       </c>
       <c r="C55">
-        <v>0.002024281723859859</v>
+        <v>-0.0706230763827348</v>
       </c>
       <c r="D55">
-        <v>0.06531231833853618</v>
+        <v>0.005905928791930405</v>
       </c>
       <c r="E55">
-        <v>0.03461329277603233</v>
+        <v>-0.01906797021475989</v>
       </c>
       <c r="F55">
-        <v>0.01518001652412953</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05279646634594503</v>
+      </c>
+      <c r="G55">
+        <v>-0.03117433553627176</v>
+      </c>
+      <c r="H55">
+        <v>-0.01555347973271721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1398783424029187</v>
+        <v>-0.1168114950544308</v>
       </c>
       <c r="C56">
-        <v>0.003112039075224346</v>
+        <v>-0.1152795077387072</v>
       </c>
       <c r="D56">
-        <v>0.0676302464837981</v>
+        <v>0.01719352051221997</v>
       </c>
       <c r="E56">
-        <v>0.08457089757131858</v>
+        <v>-0.03129491499630831</v>
       </c>
       <c r="F56">
-        <v>0.04364546373374998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.08666884602999712</v>
+      </c>
+      <c r="G56">
+        <v>-0.04404751745334747</v>
+      </c>
+      <c r="H56">
+        <v>-0.04314407611789758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03506319020754652</v>
+        <v>-0.01632358685288142</v>
       </c>
       <c r="C57">
-        <v>-0.007607906006090546</v>
+        <v>-0.01736938843857362</v>
       </c>
       <c r="D57">
-        <v>0.01740971900110169</v>
+        <v>-0.02317879532843499</v>
       </c>
       <c r="E57">
-        <v>-0.04082710310240976</v>
+        <v>0.03016819875347626</v>
       </c>
       <c r="F57">
-        <v>-0.03405221921494517</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03496281987302855</v>
+      </c>
+      <c r="G57">
+        <v>-0.006677248901677319</v>
+      </c>
+      <c r="H57">
+        <v>0.02335853814115308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1912838902076504</v>
+        <v>-0.0691858226978368</v>
       </c>
       <c r="C58">
-        <v>-0.1238171754089209</v>
+        <v>-0.1421256604557619</v>
       </c>
       <c r="D58">
-        <v>0.1992551509159941</v>
+        <v>-0.01583104901046952</v>
       </c>
       <c r="E58">
-        <v>-0.363454942037563</v>
+        <v>0.9627643659052491</v>
       </c>
       <c r="F58">
-        <v>-0.607950919935601</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.05589689860734639</v>
+      </c>
+      <c r="G58">
+        <v>-0.0997494105202681</v>
+      </c>
+      <c r="H58">
+        <v>-0.1120234228988136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0956115578118352</v>
+        <v>-0.1845709796717534</v>
       </c>
       <c r="C59">
-        <v>-0.02990685987445093</v>
+        <v>0.1882122532923742</v>
       </c>
       <c r="D59">
-        <v>-0.1881357220262341</v>
+        <v>0.02351916668945377</v>
       </c>
       <c r="E59">
-        <v>-0.05371259228006542</v>
+        <v>0.01648523849510261</v>
       </c>
       <c r="F59">
-        <v>-0.03912241128456274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.02868338320905758</v>
+      </c>
+      <c r="G59">
+        <v>-0.003621012507895759</v>
+      </c>
+      <c r="H59">
+        <v>0.02179954643719774</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1873958596519125</v>
+        <v>-0.2887209896299727</v>
       </c>
       <c r="C60">
-        <v>-0.03737538524474458</v>
+        <v>-0.1353702337893522</v>
       </c>
       <c r="D60">
-        <v>-0.01133240670354796</v>
+        <v>0.008048470090411023</v>
       </c>
       <c r="E60">
-        <v>-0.05588971858696256</v>
+        <v>-0.06460963433966815</v>
       </c>
       <c r="F60">
-        <v>-0.1092236540673404</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3491263128458892</v>
+      </c>
+      <c r="G60">
+        <v>0.2085916244896248</v>
+      </c>
+      <c r="H60">
+        <v>0.1116567668100159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02386002919173502</v>
+        <v>-0.01685944239000452</v>
       </c>
       <c r="C61">
-        <v>0.003282013360907307</v>
+        <v>-0.06526539020003537</v>
       </c>
       <c r="D61">
-        <v>0.04745917519962584</v>
+        <v>-0.003758395945572571</v>
       </c>
       <c r="E61">
-        <v>-0.006198881330969834</v>
+        <v>-0.006862639840178021</v>
       </c>
       <c r="F61">
-        <v>-0.02301029287037947</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03543061368511863</v>
+      </c>
+      <c r="G61">
+        <v>0.002696946032923862</v>
+      </c>
+      <c r="H61">
+        <v>0.01883426117591007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01475896623670842</v>
+        <v>-0.007392026690144186</v>
       </c>
       <c r="C63">
-        <v>0.00618965386558575</v>
+        <v>-0.02605630633204845</v>
       </c>
       <c r="D63">
-        <v>0.02006433243946749</v>
+        <v>-0.007207203712669561</v>
       </c>
       <c r="E63">
-        <v>-0.001159398392732037</v>
+        <v>-0.01406377376801451</v>
       </c>
       <c r="F63">
-        <v>-0.009247292303083387</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.00638634529657229</v>
+      </c>
+      <c r="G63">
+        <v>-0.01809261787822039</v>
+      </c>
+      <c r="H63">
+        <v>0.005373539516005307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03986900456897025</v>
+        <v>-0.03713424426406692</v>
       </c>
       <c r="C64">
-        <v>0.003671812892860019</v>
+        <v>-0.03935808235475086</v>
       </c>
       <c r="D64">
-        <v>0.03121066784145167</v>
+        <v>-0.002352006568581693</v>
       </c>
       <c r="E64">
-        <v>-8.623634713974211e-05</v>
+        <v>-0.0169878745833413</v>
       </c>
       <c r="F64">
-        <v>-0.02345649016290015</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003190053227475812</v>
+      </c>
+      <c r="G64">
+        <v>-0.0002013606254110702</v>
+      </c>
+      <c r="H64">
+        <v>0.02310656325436681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0531916100301012</v>
+        <v>-0.05940217901784508</v>
       </c>
       <c r="C65">
-        <v>0.008371676598814068</v>
+        <v>-0.0809258948848874</v>
       </c>
       <c r="D65">
-        <v>0.0451563032375665</v>
+        <v>-0.01263960132784821</v>
       </c>
       <c r="E65">
-        <v>0.006493929152635699</v>
+        <v>-0.01755582832205072</v>
       </c>
       <c r="F65">
-        <v>-0.03616612162481308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03106268796987165</v>
+      </c>
+      <c r="G65">
+        <v>-0.0003728848720086044</v>
+      </c>
+      <c r="H65">
+        <v>-0.004214433979526052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03895662381856334</v>
+        <v>-0.02345532198065033</v>
       </c>
       <c r="C66">
-        <v>-0.00784740314802451</v>
+        <v>-0.1242212006414842</v>
       </c>
       <c r="D66">
-        <v>0.0706455295746849</v>
+        <v>-0.009177984940582072</v>
       </c>
       <c r="E66">
-        <v>0.02947734698190303</v>
+        <v>-0.008161077540540081</v>
       </c>
       <c r="F66">
-        <v>-0.06395973170688252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06026081044437301</v>
+      </c>
+      <c r="G66">
+        <v>0.01683210975698805</v>
+      </c>
+      <c r="H66">
+        <v>0.006165030442525146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03050131169514165</v>
+        <v>-0.04780271381121574</v>
       </c>
       <c r="C67">
-        <v>-0.006200964490260636</v>
+        <v>-0.02538089139964616</v>
       </c>
       <c r="D67">
-        <v>-0.004446678199222552</v>
+        <v>0.00890629965134186</v>
       </c>
       <c r="E67">
-        <v>-0.01309064190117349</v>
+        <v>-0.009214511235660328</v>
       </c>
       <c r="F67">
-        <v>-0.02602250698899388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01609557987177546</v>
+      </c>
+      <c r="G67">
+        <v>-0.01182266114918913</v>
+      </c>
+      <c r="H67">
+        <v>0.004212981887528655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1017586037024376</v>
+        <v>-0.1747837617254229</v>
       </c>
       <c r="C68">
-        <v>-0.03122785587052268</v>
+        <v>0.2349107620107147</v>
       </c>
       <c r="D68">
-        <v>-0.2167533842101713</v>
+        <v>0.004637135962959283</v>
       </c>
       <c r="E68">
-        <v>-0.05245745853613186</v>
+        <v>0.02782989191080118</v>
       </c>
       <c r="F68">
-        <v>-0.01348601662104234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.008334358234581066</v>
+      </c>
+      <c r="G68">
+        <v>-0.01323540608475555</v>
+      </c>
+      <c r="H68">
+        <v>0.02466228304551835</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05464580204234247</v>
+        <v>-0.0554241458849801</v>
       </c>
       <c r="C69">
-        <v>-0.0019613576444567</v>
+        <v>-0.04938350317977768</v>
       </c>
       <c r="D69">
-        <v>0.02529279662794855</v>
+        <v>0.01151709927534525</v>
       </c>
       <c r="E69">
-        <v>0.03002562867125548</v>
+        <v>-0.02806003890491367</v>
       </c>
       <c r="F69">
-        <v>-0.007266733887037264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01123792273882076</v>
+      </c>
+      <c r="G69">
+        <v>-0.01748824944749484</v>
+      </c>
+      <c r="H69">
+        <v>-0.00621577058736471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09477771959444793</v>
+        <v>-0.1583136983516838</v>
       </c>
       <c r="C71">
-        <v>-0.01701603802693532</v>
+        <v>0.1954550124134038</v>
       </c>
       <c r="D71">
-        <v>-0.2127174602003249</v>
+        <v>0.01099870880527378</v>
       </c>
       <c r="E71">
-        <v>-0.09762831943540125</v>
+        <v>0.04187232908878622</v>
       </c>
       <c r="F71">
-        <v>0.02037603459672192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.01313267711393092</v>
+      </c>
+      <c r="G71">
+        <v>-0.02370822768441133</v>
+      </c>
+      <c r="H71">
+        <v>0.04905665681351544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1030186089417069</v>
+        <v>-0.0674818305351839</v>
       </c>
       <c r="C72">
-        <v>0.004055620317138636</v>
+        <v>-0.08989330658289289</v>
       </c>
       <c r="D72">
-        <v>0.1052474543221359</v>
+        <v>0.01346737635275555</v>
       </c>
       <c r="E72">
-        <v>0.01990235998347565</v>
+        <v>-0.0316944940191773</v>
       </c>
       <c r="F72">
-        <v>-0.1456513008692616</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04852789648742951</v>
+      </c>
+      <c r="G72">
+        <v>0.01394190245422146</v>
+      </c>
+      <c r="H72">
+        <v>-0.01223998084355818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2331101385967672</v>
+        <v>-0.3595444874193048</v>
       </c>
       <c r="C73">
-        <v>-0.0929174747840758</v>
+        <v>-0.1967918987627178</v>
       </c>
       <c r="D73">
-        <v>0.02420366908406958</v>
+        <v>0.003631184310214036</v>
       </c>
       <c r="E73">
-        <v>-0.1117241582536741</v>
+        <v>-0.0524750625696382</v>
       </c>
       <c r="F73">
-        <v>-0.1187976405959534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.378760217803336</v>
+      </c>
+      <c r="G73">
+        <v>0.2725798683119023</v>
+      </c>
+      <c r="H73">
+        <v>0.1515025964430785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1300249223554839</v>
+        <v>-0.1054591279456952</v>
       </c>
       <c r="C74">
-        <v>-0.003799953072405435</v>
+        <v>-0.1229346181585206</v>
       </c>
       <c r="D74">
-        <v>0.06393658327643763</v>
+        <v>0.01539656618558547</v>
       </c>
       <c r="E74">
-        <v>0.07969059827123776</v>
+        <v>-0.03559521652665008</v>
       </c>
       <c r="F74">
-        <v>0.0371255897477753</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06431542605053291</v>
+      </c>
+      <c r="G74">
+        <v>-0.04835382792817936</v>
+      </c>
+      <c r="H74">
+        <v>-0.0251746145236411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2527846729527808</v>
+        <v>-0.2251862112357945</v>
       </c>
       <c r="C75">
-        <v>-0.01789213008292079</v>
+        <v>-0.1873611017192459</v>
       </c>
       <c r="D75">
-        <v>0.09776757528210672</v>
+        <v>0.03696269615906189</v>
       </c>
       <c r="E75">
-        <v>0.1884901302637724</v>
+        <v>-0.03873210286374493</v>
       </c>
       <c r="F75">
-        <v>0.01728047995031431</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.171404296297223</v>
+      </c>
+      <c r="G75">
+        <v>-0.0830222108504292</v>
+      </c>
+      <c r="H75">
+        <v>-0.1225960908495447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2696810404702675</v>
+        <v>-0.1468035425662029</v>
       </c>
       <c r="C76">
-        <v>0.002567759893547823</v>
+        <v>-0.1506465787873885</v>
       </c>
       <c r="D76">
-        <v>0.1097498987278646</v>
+        <v>0.03000705692267939</v>
       </c>
       <c r="E76">
-        <v>0.2295686805453335</v>
+        <v>-0.06146619701808561</v>
       </c>
       <c r="F76">
-        <v>0.07672269686119212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1506895952975932</v>
+      </c>
+      <c r="G76">
+        <v>-0.0920795494564831</v>
+      </c>
+      <c r="H76">
+        <v>-0.09075023594294565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08504906257637135</v>
+        <v>-0.04530286163709351</v>
       </c>
       <c r="C77">
-        <v>-0.01101573711855565</v>
+        <v>-0.06831110943309582</v>
       </c>
       <c r="D77">
-        <v>0.07242902747555066</v>
+        <v>-0.01160933494688524</v>
       </c>
       <c r="E77">
-        <v>-0.1164777050881438</v>
+        <v>0.03111539862441865</v>
       </c>
       <c r="F77">
-        <v>-0.02322051228268768</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02536949305665262</v>
+      </c>
+      <c r="G77">
+        <v>-0.02276877759654067</v>
+      </c>
+      <c r="H77">
+        <v>0.03656095655663708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02749337648170478</v>
+        <v>-0.02963314956919881</v>
       </c>
       <c r="C78">
-        <v>0.00677171681184799</v>
+        <v>-0.062419069592287</v>
       </c>
       <c r="D78">
-        <v>0.06015496045417031</v>
+        <v>-0.003882010523217372</v>
       </c>
       <c r="E78">
-        <v>-0.01909805539152941</v>
+        <v>0.005155067345421798</v>
       </c>
       <c r="F78">
-        <v>-0.06671134354935494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04947406445459566</v>
+      </c>
+      <c r="G78">
+        <v>0.003703414073698243</v>
+      </c>
+      <c r="H78">
+        <v>0.01681008068923665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2031135033538561</v>
+        <v>-0.06361485009515293</v>
       </c>
       <c r="C80">
-        <v>0.9503157229224893</v>
+        <v>-0.08672476274566999</v>
       </c>
       <c r="D80">
-        <v>-0.04305859870866548</v>
+        <v>-0.008332246549312815</v>
       </c>
       <c r="E80">
-        <v>-0.1548822698939697</v>
+        <v>-0.06608830514837459</v>
       </c>
       <c r="F80">
-        <v>0.01273537253576871</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.1425256354186504</v>
+      </c>
+      <c r="G80">
+        <v>-0.8063596642857178</v>
+      </c>
+      <c r="H80">
+        <v>0.492127386641365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2016207276452124</v>
+        <v>-0.1362807994845649</v>
       </c>
       <c r="C81">
-        <v>-0.003157593166587551</v>
+        <v>-0.1065798869814088</v>
       </c>
       <c r="D81">
-        <v>0.05907549724826173</v>
+        <v>0.02232941640453535</v>
       </c>
       <c r="E81">
-        <v>0.1500584650118212</v>
+        <v>-0.02314472983983914</v>
       </c>
       <c r="F81">
-        <v>0.002234371380405901</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1117298985577943</v>
+      </c>
+      <c r="G81">
+        <v>-0.07172645711454931</v>
+      </c>
+      <c r="H81">
+        <v>-0.0666922779938648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.01686271704413821</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.01342262205926622</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.001528450669825281</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01472532316753795</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01384065529390738</v>
+      </c>
+      <c r="G82">
+        <v>0.008216979253964923</v>
+      </c>
+      <c r="H82">
+        <v>-0.0002790276990096276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02749616756172879</v>
+        <v>-0.02191278724367154</v>
       </c>
       <c r="C83">
-        <v>-0.00509104068793412</v>
+        <v>-0.01946072247954022</v>
       </c>
       <c r="D83">
-        <v>0.0132697852256496</v>
+        <v>-0.00409217000415775</v>
       </c>
       <c r="E83">
-        <v>-0.03377304792082352</v>
+        <v>0.01624952489687228</v>
       </c>
       <c r="F83">
-        <v>-0.0389465317987694</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.03601280205920405</v>
+      </c>
+      <c r="G83">
+        <v>-0.004270529932644853</v>
+      </c>
+      <c r="H83">
+        <v>0.02062772702941673</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2515883175109622</v>
+        <v>-0.2182649286365035</v>
       </c>
       <c r="C85">
-        <v>-0.02600530496357329</v>
+        <v>-0.2000185954710163</v>
       </c>
       <c r="D85">
-        <v>0.1163734797252492</v>
+        <v>0.02546848109187855</v>
       </c>
       <c r="E85">
-        <v>0.2035383019982295</v>
+        <v>-0.07139521152138302</v>
       </c>
       <c r="F85">
-        <v>0.04545023704901862</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1727686689577359</v>
+      </c>
+      <c r="G85">
+        <v>-0.04025725629611403</v>
+      </c>
+      <c r="H85">
+        <v>-0.1369476579887159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002958342810436517</v>
+        <v>-0.008020665860362207</v>
       </c>
       <c r="C86">
-        <v>0.009687155512474673</v>
+        <v>-0.02562631366701025</v>
       </c>
       <c r="D86">
-        <v>0.04171125850043243</v>
+        <v>-0.008692751969716214</v>
       </c>
       <c r="E86">
-        <v>-0.02993747509928779</v>
+        <v>0.007022699207694691</v>
       </c>
       <c r="F86">
-        <v>-0.06931831435529411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03333188291064415</v>
+      </c>
+      <c r="G86">
+        <v>-0.01481446348124842</v>
+      </c>
+      <c r="H86">
+        <v>0.0596969458723051</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0311632352831705</v>
+        <v>-0.00487891072752447</v>
       </c>
       <c r="C87">
-        <v>0.006730503632403474</v>
+        <v>-0.03433674539411446</v>
       </c>
       <c r="D87">
-        <v>0.0415310075028958</v>
+        <v>-0.01035939716568962</v>
       </c>
       <c r="E87">
-        <v>-0.056270266743657</v>
+        <v>0.04246536152806006</v>
       </c>
       <c r="F87">
-        <v>-0.07055736752074337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.05172299747930983</v>
+      </c>
+      <c r="G87">
+        <v>-0.006425853469961449</v>
+      </c>
+      <c r="H87">
+        <v>0.05015821701304399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04197494236253438</v>
+        <v>-0.05904725475108074</v>
       </c>
       <c r="C88">
-        <v>-0.005953975737912625</v>
+        <v>-0.04622616636652727</v>
       </c>
       <c r="D88">
-        <v>-0.002124735225493644</v>
+        <v>-0.01911746316915687</v>
       </c>
       <c r="E88">
-        <v>-0.0005898186768935553</v>
+        <v>-0.009673536022785022</v>
       </c>
       <c r="F88">
-        <v>0.01107883256131933</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.03510632314034171</v>
+      </c>
+      <c r="G88">
+        <v>-0.0008113264023368682</v>
+      </c>
+      <c r="H88">
+        <v>0.0118258209714607</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1722422207103797</v>
+        <v>-0.2794474489265535</v>
       </c>
       <c r="C89">
-        <v>-0.06313878732066469</v>
+        <v>0.3351014281968929</v>
       </c>
       <c r="D89">
-        <v>-0.366257144779941</v>
+        <v>0.01878743878280627</v>
       </c>
       <c r="E89">
-        <v>-0.03923206191881714</v>
+        <v>0.01548454883628931</v>
       </c>
       <c r="F89">
-        <v>-0.03413220967193368</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.005905186480214516</v>
+      </c>
+      <c r="G89">
+        <v>-0.007328846233834304</v>
+      </c>
+      <c r="H89">
+        <v>0.005238257654911543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1136548995280852</v>
+        <v>-0.2287406240589488</v>
       </c>
       <c r="C90">
-        <v>-0.05943180594930539</v>
+        <v>0.3057321409919118</v>
       </c>
       <c r="D90">
-        <v>-0.3348045825638769</v>
+        <v>0.01846281802349236</v>
       </c>
       <c r="E90">
-        <v>-0.04247952309403957</v>
+        <v>0.02803231471436291</v>
       </c>
       <c r="F90">
-        <v>0.01952100737746266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0468728732039649</v>
+      </c>
+      <c r="G90">
+        <v>-0.006932136356448769</v>
+      </c>
+      <c r="H90">
+        <v>-0.005133048116492039</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2946721377485588</v>
+        <v>-0.1967248176449043</v>
       </c>
       <c r="C91">
-        <v>-0.0276649589321835</v>
+        <v>-0.1501772149934358</v>
       </c>
       <c r="D91">
-        <v>0.1247417412085476</v>
+        <v>0.03296449940823779</v>
       </c>
       <c r="E91">
-        <v>0.2168639047700208</v>
+        <v>-0.05415724161832818</v>
       </c>
       <c r="F91">
-        <v>0.1245641095693391</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1827028034708702</v>
+      </c>
+      <c r="G91">
+        <v>-0.07820077191196007</v>
+      </c>
+      <c r="H91">
+        <v>-0.1000841634439717</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2328557537065842</v>
+        <v>-0.2502546786485946</v>
       </c>
       <c r="C92">
-        <v>-0.06426039138233855</v>
+        <v>0.2465159128604582</v>
       </c>
       <c r="D92">
-        <v>-0.3677500109777127</v>
+        <v>0.06182023660473127</v>
       </c>
       <c r="E92">
-        <v>0.05958132762799481</v>
+        <v>0.03935153965117744</v>
       </c>
       <c r="F92">
-        <v>0.01521734279160583</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1075650790695772</v>
+      </c>
+      <c r="G92">
+        <v>-0.09260089401699587</v>
+      </c>
+      <c r="H92">
+        <v>-0.05769439197985998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1630922825907391</v>
+        <v>-0.2615480816082119</v>
       </c>
       <c r="C93">
-        <v>-0.08556654101122947</v>
+        <v>0.2928057723840891</v>
       </c>
       <c r="D93">
-        <v>-0.3904155447272549</v>
+        <v>0.02679104576013064</v>
       </c>
       <c r="E93">
-        <v>-0.08008851440718841</v>
+        <v>0.03391717844531035</v>
       </c>
       <c r="F93">
-        <v>0.05392133164091869</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02032666648980928</v>
+      </c>
+      <c r="G93">
+        <v>0.01422503411297267</v>
+      </c>
+      <c r="H93">
+        <v>0.02892260956806586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3198273595378937</v>
+        <v>-0.2594699231090324</v>
       </c>
       <c r="C94">
-        <v>-0.05687738235752219</v>
+        <v>-0.1919228312685449</v>
       </c>
       <c r="D94">
-        <v>0.08808825507974445</v>
+        <v>0.02245078966998202</v>
       </c>
       <c r="E94">
-        <v>0.2530030666354677</v>
+        <v>-0.06153095856139088</v>
       </c>
       <c r="F94">
-        <v>0.008811310400122715</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2696183329060626</v>
+      </c>
+      <c r="G94">
+        <v>-0.09082214143264207</v>
+      </c>
+      <c r="H94">
+        <v>-0.3340827042711035</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05419283758972943</v>
+        <v>-0.07776373859755123</v>
       </c>
       <c r="C95">
-        <v>-0.0776372908794523</v>
+        <v>-0.1158591120826641</v>
       </c>
       <c r="D95">
-        <v>0.02812017893462102</v>
+        <v>0.01203271310188175</v>
       </c>
       <c r="E95">
-        <v>0.006335941287193627</v>
+        <v>0.01990950034944711</v>
       </c>
       <c r="F95">
-        <v>-0.01421895380016307</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08304701724520164</v>
+      </c>
+      <c r="G95">
+        <v>0.119456300431104</v>
+      </c>
+      <c r="H95">
+        <v>0.01609055069757282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1876118619915838</v>
+        <v>-0.1993690396312788</v>
       </c>
       <c r="C98">
-        <v>-0.05485533865068221</v>
+        <v>-0.07658447138658835</v>
       </c>
       <c r="D98">
-        <v>-0.02433006044727535</v>
+        <v>0.02791085160330071</v>
       </c>
       <c r="E98">
-        <v>-0.1106081635898167</v>
+        <v>0.01111869132568057</v>
       </c>
       <c r="F98">
-        <v>-0.1166566304036366</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2057679917564328</v>
+      </c>
+      <c r="G98">
+        <v>0.148641188756907</v>
+      </c>
+      <c r="H98">
+        <v>0.1253142449956593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006507117967179115</v>
+        <v>-0.003161731973894095</v>
       </c>
       <c r="C101">
-        <v>0.004327931512087219</v>
+        <v>-0.01577780470847076</v>
       </c>
       <c r="D101">
-        <v>0.0272781238191315</v>
+        <v>-0.00729727764041174</v>
       </c>
       <c r="E101">
-        <v>-0.05648623583977511</v>
+        <v>0.0304906299064713</v>
       </c>
       <c r="F101">
-        <v>-0.184409370491749</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02869244819875177</v>
+      </c>
+      <c r="G101">
+        <v>-0.02856589945578573</v>
+      </c>
+      <c r="H101">
+        <v>-0.00972095634218329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1333450946870199</v>
+        <v>-0.1125805591298654</v>
       </c>
       <c r="C102">
-        <v>-0.008627702417050333</v>
+        <v>-0.09317921728988683</v>
       </c>
       <c r="D102">
-        <v>0.0526594610787387</v>
+        <v>0.004918455690339786</v>
       </c>
       <c r="E102">
-        <v>0.09862950578268223</v>
+        <v>-0.04137441372930774</v>
       </c>
       <c r="F102">
-        <v>0.05438437020151132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.07251506796796685</v>
+      </c>
+      <c r="G102">
+        <v>-0.02545554915659438</v>
+      </c>
+      <c r="H102">
+        <v>-0.04647270037551771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04255284477719874</v>
+        <v>-0.009275742104731805</v>
       </c>
       <c r="C103">
-        <v>0.01566083455036989</v>
+        <v>-0.008814076175587503</v>
       </c>
       <c r="D103">
-        <v>0.01924128940265488</v>
+        <v>0.0005307987824416295</v>
       </c>
       <c r="E103">
-        <v>0.01946601242350482</v>
+        <v>0.001173542380105185</v>
       </c>
       <c r="F103">
-        <v>-0.005836509465962035</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01072096559723792</v>
+      </c>
+      <c r="G103">
+        <v>-0.02151163018099323</v>
+      </c>
+      <c r="H103">
+        <v>0.002839782070603621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.08074678288838726</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.0409048729197697</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9825318204295374</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03809828724441099</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.02556606506756608</v>
+      </c>
+      <c r="G104">
+        <v>-0.04414756540154255</v>
+      </c>
+      <c r="H104">
+        <v>-0.1126199041790073</v>
       </c>
     </row>
   </sheetData>
